--- a/Datas/#Quest.xlsx
+++ b/Datas/#Quest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29630"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\semoz\Desktop\Idle Lord\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\client\LubanConfig\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B63257D-205A-449B-A0D5-9235D05CE088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5AB11B-C57B-4012-A428-30E8861125CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="189">
   <si>
     <t xml:space="preserve"> //任务名的文本索引ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -250,10 +250,6 @@
   <si>
     <t xml:space="preserve"> //分在同一个组的任务冷却后，改组所有任务同时都进入冷却。0表示不触发冷却组冷却</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> //枚举值，OneShot（一次性任务），Standard（常规任务），Weekly （周期任务）。一次性任务完成后无法再次刷新，例如引导任务/解锁任务/剧情任务等；常规任务为任务库中可重复完成的任务，有CD；周期任务为1周周期重置，只能接取1次的任务。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> //一次性任务为无限期CD，不重置CD；常规任务按照CD时间计算，到时即重置CD；周期任务为每周一次在特定时间重置CD。</t>
@@ -909,6 +905,21 @@
   </si>
   <si>
     <t>Threat9Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>QuestName_Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestInfo_Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> //枚举值，2（一次性任务），1（常规任务），3（周期任务）。一次性任务完成后无法再次刷新，例如引导任务/解锁任务/剧情任务等；常规任务为任务库中可重复完成的任务，有CD；周期任务为1周周期重置，只能接取1次的任务。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2171,17 +2182,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>
@@ -2193,19 +2204,19 @@
         <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" t="s">
         <v>150</v>
       </c>
-      <c r="G1" t="s">
-        <v>151</v>
-      </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
         <v>46</v>
@@ -2220,10 +2231,10 @@
         <v>44</v>
       </c>
       <c r="N1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P1" t="s">
         <v>14</v>
@@ -2235,84 +2246,84 @@
         <v>18</v>
       </c>
       <c r="S1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" t="s">
         <v>66</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>67</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>68</v>
       </c>
       <c r="Z1" t="s">
         <v>22</v>
       </c>
       <c r="AA1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB1" t="s">
         <v>24</v>
       </c>
       <c r="AC1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AD1" t="s">
         <v>26</v>
       </c>
       <c r="AE1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF1" t="s">
         <v>28</v>
       </c>
       <c r="AG1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AH1" t="s">
         <v>30</v>
       </c>
       <c r="AI1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ1" t="s">
         <v>32</v>
       </c>
       <c r="AK1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM1" t="s">
         <v>182</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>161</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>183</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>162</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>184</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:43">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2439,6 +2450,92 @@
       </c>
       <c r="AQ2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>60</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <v>200</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>200</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>16</v>
+      </c>
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>28</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2449,10 +2546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA0BE27-800F-4503-93B3-5B81A8AACDB7}">
-  <dimension ref="B2:K97"/>
+  <dimension ref="B2:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56:K97"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -2507,18 +2604,18 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -2526,13 +2623,13 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -2540,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -2554,7 +2651,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -2569,13 +2666,13 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -2586,7 +2683,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -2600,7 +2697,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -2655,16 +2752,16 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
         <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -2672,18 +2769,18 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -2692,7 +2789,7 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -2706,7 +2803,7 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -2720,7 +2817,7 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -2728,7 +2825,7 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -2739,7 +2836,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -2748,77 +2845,77 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="C25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -2832,18 +2929,18 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="D34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
         <v>176</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -2859,7 +2956,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="D36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -2878,7 +2975,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="D38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -2897,7 +2994,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="D40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -2916,7 +3013,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="D42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -2935,7 +3032,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="D44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -2943,10 +3040,10 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -2954,7 +3051,7 @@
     </row>
     <row r="46" spans="2:6">
       <c r="D46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -2962,10 +3059,10 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -2973,7 +3070,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="D48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -2981,361 +3078,32 @@
     </row>
     <row r="49" spans="2:11">
       <c r="B49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
         <v>163</v>
-      </c>
-      <c r="E49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="D50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
-      <c r="J56" t="s">
-        <v>36</v>
-      </c>
-      <c r="K56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="J57" t="s">
-        <v>39</v>
-      </c>
-      <c r="K57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="J58" t="s">
-        <v>42</v>
-      </c>
-      <c r="K58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="J59" t="s">
-        <v>147</v>
-      </c>
-      <c r="K59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="J60" t="s">
-        <v>150</v>
-      </c>
-      <c r="K60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="J61" t="s">
-        <v>151</v>
-      </c>
-      <c r="K61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="J62" t="s">
-        <v>76</v>
-      </c>
-      <c r="K62" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="63" spans="2:11">
-      <c r="J63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="J64" t="s">
-        <v>46</v>
-      </c>
-      <c r="K64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="10:11">
-      <c r="J65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="10:11">
-      <c r="J66" t="s">
-        <v>47</v>
-      </c>
-      <c r="K66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="10:11">
-      <c r="J67" t="s">
-        <v>44</v>
-      </c>
-      <c r="K67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="10:11">
-      <c r="J68" t="s">
-        <v>60</v>
-      </c>
-      <c r="K68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="10:11">
-      <c r="J69" t="s">
-        <v>148</v>
-      </c>
-      <c r="K69" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="10:11">
-      <c r="J70" t="s">
-        <v>14</v>
-      </c>
-      <c r="K70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="10:11">
-      <c r="J71" t="s">
-        <v>16</v>
-      </c>
-      <c r="K71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="10:11">
-      <c r="J72" t="s">
-        <v>18</v>
-      </c>
-      <c r="K72" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="10:11">
-      <c r="J73" t="s">
-        <v>73</v>
-      </c>
-      <c r="K73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="10:11">
-      <c r="J74" t="s">
-        <v>35</v>
-      </c>
-      <c r="K74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="10:11">
-      <c r="J75" t="s">
-        <v>74</v>
-      </c>
-      <c r="K75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="10:11">
-      <c r="J76" t="s">
-        <v>58</v>
-      </c>
-      <c r="K76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="10:11">
-      <c r="J77" t="s">
-        <v>66</v>
-      </c>
-      <c r="K77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="10:11">
-      <c r="J78" t="s">
-        <v>67</v>
-      </c>
-      <c r="K78" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="10:11">
-      <c r="J79" t="s">
-        <v>68</v>
-      </c>
-      <c r="K79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="10:11">
-      <c r="J80" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="10:11">
-      <c r="J81" t="s">
-        <v>176</v>
-      </c>
-      <c r="K81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="10:11">
-      <c r="J82" t="s">
-        <v>24</v>
-      </c>
-      <c r="K82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="10:11">
-      <c r="J83" t="s">
-        <v>178</v>
-      </c>
-      <c r="K83" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="10:11">
-      <c r="J84" t="s">
-        <v>26</v>
-      </c>
-      <c r="K84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="10:11">
-      <c r="J85" t="s">
-        <v>179</v>
-      </c>
-      <c r="K85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="10:11">
-      <c r="J86" t="s">
-        <v>28</v>
-      </c>
-      <c r="K86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="10:11">
-      <c r="J87" t="s">
-        <v>180</v>
-      </c>
-      <c r="K87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="10:11">
-      <c r="J88" t="s">
-        <v>30</v>
-      </c>
-      <c r="K88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="10:11">
-      <c r="J89" t="s">
-        <v>181</v>
-      </c>
-      <c r="K89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="10:11">
-      <c r="J90" t="s">
-        <v>32</v>
-      </c>
-      <c r="K90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="10:11">
-      <c r="J91" t="s">
-        <v>182</v>
-      </c>
-      <c r="K91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="10:11">
-      <c r="J92" t="s">
-        <v>161</v>
-      </c>
-      <c r="K92" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="10:11">
-      <c r="J93" t="s">
-        <v>183</v>
-      </c>
-      <c r="K93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="10:11">
-      <c r="J94" t="s">
-        <v>162</v>
-      </c>
-      <c r="K94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="10:11">
-      <c r="J95" t="s">
-        <v>184</v>
-      </c>
-      <c r="K95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="10:11">
-      <c r="J96" t="s">
-        <v>163</v>
-      </c>
-      <c r="K96" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="10:11">
-      <c r="J97" t="s">
-        <v>185</v>
-      </c>
-      <c r="K97" t="s">
-        <v>4</v>
-      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3355,68 +3123,68 @@
   <sheetData>
     <row r="2" spans="2:5" s="10" customFormat="1">
       <c r="B2" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" t="s">
         <v>172</v>
-      </c>
-      <c r="E7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="C9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="5" customFormat="1">
       <c r="A34" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -3427,131 +3195,131 @@
     </row>
     <row r="48" spans="1:8">
       <c r="B48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s">
         <v>85</v>
-      </c>
-      <c r="D50" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="D51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" t="s">
         <v>88</v>
-      </c>
-      <c r="D53" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" t="s">
         <v>90</v>
-      </c>
-      <c r="D55" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="D56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="D57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="D58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" t="s">
         <v>95</v>
-      </c>
-      <c r="D61" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="D62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" t="s">
         <v>98</v>
-      </c>
-      <c r="D64" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="D65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="2:14">
       <c r="D66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="2:14">
       <c r="D67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="2:14">
       <c r="B69" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" t="s">
         <v>103</v>
-      </c>
-      <c r="D69" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="71" spans="2:14" s="6" customFormat="1">
       <c r="B71" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="2:14">
       <c r="B74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="2:14">
       <c r="C75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M75" s="9"/>
     </row>
     <row r="76" spans="2:14">
       <c r="D76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N76" s="9"/>
     </row>
     <row r="77" spans="2:14">
       <c r="E77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N77" s="9"/>
     </row>
     <row r="78" spans="2:14">
       <c r="E78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N78" s="9"/>
     </row>
@@ -3561,19 +3329,19 @@
     <row r="80" spans="2:14">
       <c r="B80" s="8"/>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N80" s="9"/>
     </row>
     <row r="81" spans="2:14">
       <c r="E81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N81" s="9"/>
     </row>
     <row r="82" spans="2:14">
       <c r="E82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N82" s="9"/>
     </row>
@@ -3582,7 +3350,7 @@
     </row>
     <row r="84" spans="2:14">
       <c r="C84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N84" s="9"/>
     </row>
@@ -3591,78 +3359,78 @@
     </row>
     <row r="86" spans="2:14">
       <c r="B86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M86" s="9"/>
     </row>
     <row r="88" spans="2:14">
       <c r="D88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="2:14">
       <c r="B89" s="8"/>
       <c r="E89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="2:14">
       <c r="B90" s="8"/>
       <c r="E90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="2:14">
       <c r="D92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="2:14">
       <c r="E93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="2:14">
       <c r="E94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="2:14">
       <c r="E95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="2:14">
       <c r="D97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="2:14">
       <c r="E98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="2:14">
       <c r="E99" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="2:14">
       <c r="C101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="2:14">
       <c r="C102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="2:14">
       <c r="B104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="2:14">
@@ -3670,87 +3438,87 @@
         <v>3.1</v>
       </c>
       <c r="D106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="2:14">
       <c r="D112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="2:8">
       <c r="D114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="2:8">
       <c r="E115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="2:8">
       <c r="E116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="2:8">
       <c r="E117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="2:8">
       <c r="H118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="2:8">
       <c r="B119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="2:8">
       <c r="C120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="2:8">
       <c r="C121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="2:8">
       <c r="C123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="2:8">
       <c r="D127" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="2:8">
       <c r="D128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="130" spans="2:4">
       <c r="C130" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="133" spans="2:4">
       <c r="B133" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="2:4">
       <c r="C134" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="2:4">
       <c r="D135" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
